--- a/data/EPNM/interim/calibration_data/data_availability.xlsx
+++ b/data/EPNM/interim/calibration_data/data_availability.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t xml:space="preserve">GDP</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">equal to</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
+    <t xml:space="preserve">A01</t>
   </si>
   <si>
     <t xml:space="preserve">05-09</t>
@@ -49,202 +49,214 @@
     <t xml:space="preserve">01-02-03</t>
   </si>
   <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A03</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturing average</t>
   </si>
   <si>
-    <t xml:space="preserve">10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
+    <t xml:space="preserve">B05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
   </si>
   <si>
     <t xml:space="preserve">46-47</t>
   </si>
   <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
   </si>
   <si>
     <t xml:space="preserve">49-50</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
+    <t xml:space="preserve">C20</t>
   </si>
   <si>
     <t xml:space="preserve">69-70</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
   </si>
   <si>
     <t xml:space="preserve">74-75</t>
   </si>
   <si>
-    <t xml:space="preserve">24</t>
+    <t xml:space="preserve">C24</t>
   </si>
   <si>
     <t xml:space="preserve">transport average</t>
   </si>
   <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
   </si>
   <si>
     <t xml:space="preserve">no shock</t>
   </si>
   <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28</t>
   </si>
   <si>
     <t xml:space="preserve">87-88</t>
   </si>
   <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62-63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97-98</t>
+    <t xml:space="preserve">C29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E37-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F41-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I55-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J59-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J62-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M69-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N80-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q87-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R90-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T97-98</t>
   </si>
 </sst>
 </file>
@@ -255,11 +267,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,11 +292,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -337,7 +345,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,10 +355,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,22 +438,22 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -463,13 +467,13 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <f aca="false">SUM(B2:D2)</f>
         <v>2</v>
       </c>
@@ -499,13 +503,13 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <f aca="false">SUM(B4:D4)</f>
         <v>2</v>
       </c>
@@ -518,7 +522,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="n">
         <f aca="false">SUM(B5:D5)</f>
@@ -533,15 +537,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <f aca="false">SUM(B6:D6)</f>
         <v>2</v>
       </c>
@@ -554,18 +558,18 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <f aca="false">SUM(B7:D7)</f>
         <v>3</v>
       </c>
@@ -578,7 +582,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="n">
         <f aca="false">SUM(B8:D8)</f>
@@ -593,33 +597,33 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <f aca="false">SUM(B9:D9)</f>
         <v>3</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <f aca="false">SUM(B10:D10)</f>
         <v>0</v>
       </c>
@@ -632,7 +636,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="n">
         <f aca="false">SUM(B11:D11)</f>
@@ -642,23 +646,23 @@
         <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <f aca="false">SUM(B12:D12)</f>
         <v>3</v>
       </c>
@@ -666,20 +670,20 @@
         <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <f aca="false">SUM(B13:D13)</f>
         <v>2</v>
       </c>
@@ -687,23 +691,23 @@
         <v>72</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <f aca="false">SUM(B14:D14)</f>
         <v>3</v>
       </c>
@@ -711,44 +715,44 @@
         <v>73</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <f aca="false">SUM(B15:D15)</f>
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <f aca="false">SUM(B16:D16)</f>
         <v>3</v>
       </c>
@@ -756,23 +760,23 @@
         <v>77</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <f aca="false">SUM(B17:D17)</f>
         <v>3</v>
       </c>
@@ -780,23 +784,23 @@
         <v>84</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <f aca="false">SUM(B18:D18)</f>
         <v>3</v>
       </c>
@@ -804,17 +808,17 @@
         <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <f aca="false">SUM(B19:D19)</f>
         <v>1</v>
       </c>
@@ -822,41 +826,41 @@
         <v>86</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <f aca="false">SUM(B20:D20)</f>
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <f aca="false">SUM(B21:D21)</f>
         <v>1</v>
       </c>
@@ -864,23 +868,23 @@
         <v>94</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <f aca="false">SUM(B22:D22)</f>
         <v>3</v>
       </c>
@@ -888,27 +892,27 @@
         <v>95</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <f aca="false">SUM(B23:D23)</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="n">
         <f aca="false">SUM(B24:D24)</f>
@@ -917,7 +921,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="n">
         <f aca="false">SUM(B25:D25)</f>
@@ -926,7 +930,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="n">
         <f aca="false">SUM(B26:D26)</f>
@@ -935,7 +939,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="n">
         <f aca="false">SUM(B27:D27)</f>
@@ -944,298 +948,298 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <f aca="false">SUM(B28:D28)</f>
         <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <f aca="false">SUM(B29:D29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <f aca="false">SUM(B30:D30)</f>
         <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <f aca="false">SUM(B31:D31)</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="n">
         <f aca="false">SUM(B32:D32)</f>
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <f aca="false">SUM(B33:D33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <f aca="false">SUM(B34:D34)</f>
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <f aca="false">SUM(B35:D35)</f>
         <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <f aca="false">SUM(B36:D36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <f aca="false">SUM(B37:D37)</f>
         <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <f aca="false">SUM(B38:D38)</f>
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <f aca="false">SUM(B39:D39)</f>
         <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <f aca="false">SUM(B40:D40)</f>
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <f aca="false">SUM(B41:D41)</f>
         <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <f aca="false">SUM(B42:D42)</f>
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <f aca="false">SUM(B43:D43)</f>
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <f aca="false">SUM(B44:D44)</f>
         <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="n">
         <f aca="false">SUM(B45:D45)</f>
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="n">
         <f aca="false">SUM(B46:D46)</f>
         <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E47" s="2" t="n">
         <f aca="false">SUM(B47:D47)</f>
@@ -1244,7 +1248,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E48" s="2" t="n">
         <f aca="false">SUM(B48:D48)</f>
@@ -1253,7 +1257,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E49" s="2" t="n">
         <f aca="false">SUM(B49:D49)</f>
@@ -1262,7 +1266,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E50" s="2" t="n">
         <f aca="false">SUM(B50:D50)</f>
@@ -1271,64 +1275,64 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <f aca="false">SUM(B51:D51)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <f aca="false">SUM(B52:D52)</f>
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="n">
         <f aca="false">SUM(B53:D53)</f>
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <f aca="false">SUM(B54:D54)</f>
         <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E55" s="2" t="n">
         <f aca="false">SUM(B55:D55)</f>
@@ -1337,7 +1341,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E56" s="2" t="n">
         <f aca="false">SUM(B56:D56)</f>
@@ -1346,7 +1350,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E57" s="2" t="n">
         <f aca="false">SUM(B57:D57)</f>
@@ -1355,7 +1359,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E58" s="2" t="n">
         <f aca="false">SUM(B58:D58)</f>
@@ -1364,37 +1368,37 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="n">
         <f aca="false">SUM(B59:D59)</f>
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="n">
         <f aca="false">SUM(B60:D60)</f>
         <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2" t="n">
         <f aca="false">SUM(B61:D61)</f>
@@ -1403,7 +1407,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2" t="n">
         <f aca="false">SUM(B62:D62)</f>
@@ -1412,22 +1416,22 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="n">
         <f aca="false">SUM(B63:D63)</f>
         <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="n">
         <f aca="false">SUM(B64:D64)</f>

--- a/data/EPNM/interim/calibration_data/data_availability.xlsx
+++ b/data/EPNM/interim/calibration_data/data_availability.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">GDP</t>
   </si>
@@ -31,33 +31,21 @@
     <t xml:space="preserve">Revenue</t>
   </si>
   <si>
+    <t xml:space="preserve">B2B</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUM</t>
   </si>
   <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equal to</t>
-  </si>
-  <si>
     <t xml:space="preserve">A01</t>
   </si>
   <si>
-    <t xml:space="preserve">05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-02-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">A02</t>
   </si>
   <si>
     <t xml:space="preserve">A03</t>
   </si>
   <si>
-    <t xml:space="preserve">manufacturing average</t>
-  </si>
-  <si>
     <t xml:space="preserve">B05-09</t>
   </si>
   <si>
@@ -73,24 +61,15 @@
     <t xml:space="preserve">C17</t>
   </si>
   <si>
-    <t xml:space="preserve">46-47</t>
-  </si>
-  <si>
     <t xml:space="preserve">C18</t>
   </si>
   <si>
     <t xml:space="preserve">C19</t>
   </si>
   <si>
-    <t xml:space="preserve">49-50</t>
-  </si>
-  <si>
     <t xml:space="preserve">C20</t>
   </si>
   <si>
-    <t xml:space="preserve">69-70</t>
-  </si>
-  <si>
     <t xml:space="preserve">C21</t>
   </si>
   <si>
@@ -100,31 +79,19 @@
     <t xml:space="preserve">C23</t>
   </si>
   <si>
-    <t xml:space="preserve">74-75</t>
-  </si>
-  <si>
     <t xml:space="preserve">C24</t>
   </si>
   <si>
-    <t xml:space="preserve">transport average</t>
-  </si>
-  <si>
     <t xml:space="preserve">C25</t>
   </si>
   <si>
     <t xml:space="preserve">C26</t>
   </si>
   <si>
-    <t xml:space="preserve">no shock</t>
-  </si>
-  <si>
     <t xml:space="preserve">C27</t>
   </si>
   <si>
     <t xml:space="preserve">C28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87-88</t>
   </si>
   <si>
     <t xml:space="preserve">C29</t>
@@ -267,7 +234,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -288,13 +255,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -354,7 +314,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,66 +327,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -437,11 +337,11 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I56" activeCellId="0" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -453,19 +353,18 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
@@ -473,35 +372,33 @@
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">SUM(B2:D2)</f>
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">SUM(B2:E2)</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <f aca="false">SUM(B3:D3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <f aca="false">SUM(B3:E3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -509,35 +406,33 @@
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">SUM(B4:D4)</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">SUM(B4:E4)</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <f aca="false">SUM(B5:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">SUM(B5:E5)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>1</v>
@@ -545,20 +440,19 @@
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">SUM(B6:D6)</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>28</v>
-      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">SUM(B6:E6)</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
@@ -569,35 +463,33 @@
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">SUM(B7:D7)</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>30</v>
-      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">SUM(B7:E7)</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <f aca="false">SUM(B8:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">SUM(B8:E8)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
@@ -608,50 +500,47 @@
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">SUM(B9:D9)</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">SUM(B9:E9)</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">SUM(B10:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>49</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">SUM(B10:E10)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <f aca="false">SUM(B11:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">SUM(B11:E11)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
@@ -662,20 +551,19 @@
       <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <f aca="false">SUM(B12:D12)</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">SUM(B12:E12)</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
@@ -683,20 +571,19 @@
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <f aca="false">SUM(B13:D13)</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">SUM(B13:E13)</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
@@ -707,20 +594,19 @@
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <f aca="false">SUM(B14:D14)</f>
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">SUM(B14:E14)</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1</v>
@@ -728,20 +614,19 @@
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">SUM(B15:D15)</f>
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">SUM(B15:E15)</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
@@ -752,20 +637,19 @@
       <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">SUM(B16:D16)</f>
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">SUM(B16:E16)</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
@@ -776,20 +660,19 @@
       <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <f aca="false">SUM(B17:D17)</f>
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">SUM(B17:E17)</f>
+        <v>4</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
@@ -800,38 +683,36 @@
       <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <f aca="false">SUM(B18:D18)</f>
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">SUM(B18:E18)</f>
+        <v>4</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <f aca="false">SUM(B19:D19)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">SUM(B19:E19)</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
@@ -842,38 +723,36 @@
       <c r="D20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="n">
-        <f aca="false">SUM(B20:D20)</f>
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <f aca="false">SUM(B20:E20)</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <f aca="false">SUM(B21:D21)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <f aca="false">SUM(B21:E21)</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
@@ -884,20 +763,19 @@
       <c r="D22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <f aca="false">SUM(B22:D22)</f>
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <f aca="false">SUM(B22:E22)</f>
+        <v>4</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>1</v>
@@ -905,50 +783,65 @@
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="n">
-        <f aca="false">SUM(B23:D23)</f>
-        <v>2</v>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <f aca="false">SUM(B23:E23)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <f aca="false">SUM(B24:D24)</f>
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <f aca="false">SUM(B24:E24)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <f aca="false">SUM(B25:D25)</f>
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <f aca="false">SUM(B25:E25)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <f aca="false">SUM(B26:D26)</f>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <f aca="false">SUM(B26:E26)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <f aca="false">SUM(B27:D27)</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <f aca="false">SUM(B27:E27)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>1</v>
@@ -959,26 +852,32 @@
       <c r="D28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <f aca="false">SUM(B28:D28)</f>
-        <v>3</v>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <f aca="false">SUM(B28:E28)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="n">
-        <f aca="false">SUM(B29:D29)</f>
-        <v>1</v>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <f aca="false">SUM(B29:E29)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>1</v>
@@ -986,14 +885,17 @@
       <c r="D30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="n">
-        <f aca="false">SUM(B30:D30)</f>
-        <v>2</v>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <f aca="false">SUM(B30:E30)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>1</v>
@@ -1001,14 +903,17 @@
       <c r="D31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <f aca="false">SUM(B31:D31)</f>
-        <v>2</v>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <f aca="false">SUM(B31:E31)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -1019,26 +924,32 @@
       <c r="D32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="n">
-        <f aca="false">SUM(B32:D32)</f>
-        <v>3</v>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <f aca="false">SUM(B32:E32)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="n">
-        <f aca="false">SUM(B33:D33)</f>
-        <v>1</v>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <f aca="false">SUM(B33:E33)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1</v>
@@ -1049,14 +960,17 @@
       <c r="D34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="n">
-        <f aca="false">SUM(B34:D34)</f>
-        <v>3</v>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <f aca="false">SUM(B34:E34)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1</v>
@@ -1067,26 +981,32 @@
       <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <f aca="false">SUM(B35:D35)</f>
-        <v>3</v>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <f aca="false">SUM(B35:E35)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="n">
-        <f aca="false">SUM(B36:D36)</f>
-        <v>1</v>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <f aca="false">SUM(B36:E36)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>1</v>
@@ -1094,14 +1014,17 @@
       <c r="D37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="n">
-        <f aca="false">SUM(B37:D37)</f>
-        <v>2</v>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <f aca="false">SUM(B37:E37)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>1</v>
@@ -1109,14 +1032,17 @@
       <c r="D38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="1" t="n">
-        <f aca="false">SUM(B38:D38)</f>
-        <v>2</v>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <f aca="false">SUM(B38:E38)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>1</v>
@@ -1124,14 +1050,17 @@
       <c r="D39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="n">
-        <f aca="false">SUM(B39:D39)</f>
-        <v>2</v>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <f aca="false">SUM(B39:E39)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>1</v>
@@ -1139,14 +1068,17 @@
       <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="1" t="n">
-        <f aca="false">SUM(B40:D40)</f>
-        <v>2</v>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="false">SUM(B40:E40)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
@@ -1157,14 +1089,17 @@
       <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="n">
-        <f aca="false">SUM(B41:D41)</f>
-        <v>3</v>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <f aca="false">SUM(B41:E41)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>1</v>
@@ -1172,14 +1107,17 @@
       <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <f aca="false">SUM(B42:D42)</f>
-        <v>2</v>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <f aca="false">SUM(B42:E42)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>1</v>
@@ -1187,14 +1125,17 @@
       <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="1" t="n">
-        <f aca="false">SUM(B43:D43)</f>
-        <v>2</v>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <f aca="false">SUM(B43:E43)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>1</v>
@@ -1202,14 +1143,17 @@
       <c r="D44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="1" t="n">
-        <f aca="false">SUM(B44:D44)</f>
-        <v>2</v>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <f aca="false">SUM(B44:E44)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>1</v>
@@ -1217,14 +1161,17 @@
       <c r="D45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="1" t="n">
-        <f aca="false">SUM(B45:D45)</f>
-        <v>2</v>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <f aca="false">SUM(B45:E45)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>1</v>
@@ -1232,62 +1179,80 @@
       <c r="D46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="1" t="n">
-        <f aca="false">SUM(B46:D46)</f>
-        <v>2</v>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <f aca="false">SUM(B46:E46)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <f aca="false">SUM(B47:D47)</f>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <f aca="false">SUM(B47:E47)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <f aca="false">SUM(B48:D48)</f>
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <f aca="false">SUM(B48:E48)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <f aca="false">SUM(B49:D49)</f>
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <f aca="false">SUM(B49:E49)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <f aca="false">SUM(B50:D50)</f>
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <f aca="false">SUM(B50:E50)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E51" s="1" t="n">
-        <f aca="false">SUM(B51:D51)</f>
-        <v>1</v>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <f aca="false">SUM(B51:E51)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>1</v>
@@ -1295,14 +1260,17 @@
       <c r="D52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E52" s="1" t="n">
-        <f aca="false">SUM(B52:D52)</f>
-        <v>2</v>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <f aca="false">SUM(B52:E52)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>1</v>
@@ -1310,14 +1278,17 @@
       <c r="D53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="1" t="n">
-        <f aca="false">SUM(B53:D53)</f>
-        <v>2</v>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <f aca="false">SUM(B53:E53)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>1</v>
@@ -1325,50 +1296,65 @@
       <c r="D54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E54" s="1" t="n">
-        <f aca="false">SUM(B54:D54)</f>
-        <v>2</v>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <f aca="false">SUM(B54:E54)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <f aca="false">SUM(B55:D55)</f>
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <f aca="false">SUM(B55:E55)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <f aca="false">SUM(B56:D56)</f>
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <f aca="false">SUM(B56:E56)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <f aca="false">SUM(B57:D57)</f>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <f aca="false">SUM(B57:E57)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <f aca="false">SUM(B58:D58)</f>
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <f aca="false">SUM(B58:E58)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>1</v>
@@ -1376,14 +1362,17 @@
       <c r="D59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E59" s="1" t="n">
-        <f aca="false">SUM(B59:D59)</f>
-        <v>2</v>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <f aca="false">SUM(B59:E59)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>1</v>
@@ -1391,32 +1380,41 @@
       <c r="D60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="1" t="n">
-        <f aca="false">SUM(B60:D60)</f>
-        <v>2</v>
+      <c r="E60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <f aca="false">SUM(B60:E60)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <f aca="false">SUM(B61:D61)</f>
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <f aca="false">SUM(B61:E61)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" s="2" t="n">
-        <f aca="false">SUM(B62:D62)</f>
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <f aca="false">SUM(B62:E62)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>1</v>
@@ -1424,17 +1422,20 @@
       <c r="D63" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="1" t="n">
-        <f aca="false">SUM(B63:D63)</f>
-        <v>2</v>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <f aca="false">SUM(B63:E63)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <f aca="false">SUM(B64:D64)</f>
+        <v>67</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <f aca="false">SUM(B64:E64)</f>
         <v>0</v>
       </c>
     </row>
